--- a/3_2/kasa/3_2_kasa_SS.xlsx
+++ b/3_2/kasa/3_2_kasa_SS.xlsx
@@ -7,8 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_kasa_l20_sita30" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_kasa_l10_sita30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_kasa_l20_sita30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_2_kasa_l30_sita30" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51,6 +53,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,78 +69,234 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_2_kasa_l10_sita30</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_kasa_l10_sita30'!$C$2:$C$57</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_kasa_l10_sita30'!$D$2:$D$57</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_kasa_l10_sita30'!$C$2:$C$5</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_kasa_l10_sita30'!$D$2:$D$5</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -249,7 +408,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -361,7 +520,329 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_2_kasa_l30_sita30</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_kasa_l30_sita30'!$C$2:$C$61</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_kasa_l30_sita30'!$D$2:$D$61</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'3_2_kasa_l30_sita30'!$C$2:$C$5</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'3_2_kasa_l30_sita30'!$D$2:$D$5</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -717,6 +1198,928 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sheet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>tensile_strength</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>young's_modulus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3_2_kasa_l10_sita30</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>37.34885714285714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4730.585714285714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3_2_kasa_l20_sita30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38.59757142857143</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4917.779047619048</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3_2_kasa_l30_sita30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38.66342857142858</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5122.165714285713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>strain</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3_2\kasa\lap=10\sita=30\3_2_kasa_l10_sita30.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49.6789</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7096985714285714</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>最大応力</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>37.34885714285714</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99.35769999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.419395714285714</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ヤング率</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4730.585714285714</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>149.034</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004499999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.129057142857143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B5" t="n">
+        <v>198.703</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.838614285714286</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="B6" t="n">
+        <v>248.362</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0007499999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.548028571428572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B7" t="n">
+        <v>298.011</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0008999999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.257300000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="B8" t="n">
+        <v>347.647</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.966385714285714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>397.27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.675285714285714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="B10" t="n">
+        <v>446.878</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.383971428571428</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>496.47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.092428571428572</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>546.046</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.800657142857143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>595.607</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.508671428571429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="B14" t="n">
+        <v>645.154</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.216485714285714</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>694.689</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.924128571428572</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>744.212</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.6316</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>793.725</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.33892857142857</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>843.226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12.04608571428571</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>892.718</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.75311428571428</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B20" t="n">
+        <v>942.202</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13.46002857142857</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>991.677</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.16681428571429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1041.14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.87342857142857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1090.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1140.05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.28642857142857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1189.49</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.99271428571429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1238.9</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17.69857142857143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1288.26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.40371428571429</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1337.47</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19.10671428571429</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1386.59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19.80842857142857</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1435.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.50857142857143</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1484.51</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>21.20728571428571</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1533.35</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.905</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1582.11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22.60157142857143</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1630.85</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.29785714285714</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1679.53</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23.99328571428572</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1728.16</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24.688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1776.76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.38228571428571</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1825.33</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="D38" t="n">
+        <v>26.07614285714286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1873.87</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005699999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>26.76957142857143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1922.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D40" t="n">
+        <v>27.46285714285714</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1970.92</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.005999999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>28.156</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2019.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006149999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>28.84885714285715</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2067.92</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29.54171428571429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2116.41</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D44" t="n">
+        <v>30.23442857142857</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2164.86</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D45" t="n">
+        <v>30.92657142857143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2213.31</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D46" t="n">
+        <v>31.61871428571429</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2261.74</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.006899999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.31057142857143</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2310.16</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="D48" t="n">
+        <v>33.00228571428571</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2358.54</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.007199999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33.69342857142857</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2406.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="D50" t="n">
+        <v>34.38428571428572</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2455.18</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="D51" t="n">
+        <v>35.074</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2503.15</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.007650000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>35.75928571428572</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2550.67</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.007800000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>36.43814285714286</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.79125</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2584.96</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.007912499999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>36.928</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.79969</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2607.56</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.007996899999999999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37.25085714285714</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.80285</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2614.42</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.008028499999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>37.34885714285714</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2614.21</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D57" t="n">
+        <v>37.34585714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1572,13 +2975,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,34 +2992,888 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>sheet_name</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>tensile_strength</t>
+          <t>FX</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>young's_modulus</t>
+          <t>strain</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3_2\kasa\lap=30\sita=30\3_2_kasa_l30_sita30.csv</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="B2" t="n">
+        <v>53.7948</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7684971428571429</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
-          <t>3_2_kasa_l20_sita30</t>
+          <t>最大応力</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>38.59757142857143</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4917.779047619048</v>
+      <c r="G2" t="n">
+        <v>38.66342857142858</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="B3" t="n">
+        <v>107.589</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.536985714285714</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ヤング率</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5122.165714285713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>161.379</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004499999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.305414285714285</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="B5" t="n">
+        <v>215.158</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.073685714285714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="B6" t="n">
+        <v>268.924</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0007499999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.841771428571428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="B7" t="n">
+        <v>322.675</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0008999999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.609642857142857</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="B8" t="n">
+        <v>376.41</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.377285714285715</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>430.124</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.144628571428572</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="B10" t="n">
+        <v>483.818</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.911685714285714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>537.49</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.678428571428571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>591.1420000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8.444885714285714</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>644.777</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.2111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="B14" t="n">
+        <v>698.395</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.977071428571428</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="B15" t="n">
+        <v>751.998</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.74282857142857</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>805.587</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11.50838571428571</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="B17" t="n">
+        <v>859.162</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.27374285714286</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>912.726</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13.03894285714286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="B19" t="n">
+        <v>966.279</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13.80398571428571</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1019.82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.56885714285714</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1073.35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.33357142857143</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1126.87</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.09814285714286</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1180.37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.86242857142857</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1233.85</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17.62642857142857</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1287.28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.003599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.38971428571428</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1340.59</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19.15128571428571</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1393.76</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19.91085714285714</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1446.83</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.669</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1499.83</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.42614285714286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1552.74</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22.182</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1605.61</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.004500000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>22.93728571428571</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1658.43</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="D32" t="n">
+        <v>23.69185714285715</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1711.22</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24.446</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1763.97</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.19957142857143</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1816.67</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.95242857142857</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1869.36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.00525</v>
+      </c>
+      <c r="D36" t="n">
+        <v>26.70514285714286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.005399999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>27.45714285714286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1974.65</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00555</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28.20928571428572</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2027.27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005699999999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>28.961</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2079.89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.00585</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29.71271428571428</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2132.49</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.005999999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.46414285714285</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2185.07</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006149999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>31.21528571428572</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2237.65</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="D43" t="n">
+        <v>31.96642857142857</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2290.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.00645</v>
+      </c>
+      <c r="D44" t="n">
+        <v>32.71714285714285</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2342.73</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33.46757142857143</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2395.22</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00675</v>
+      </c>
+      <c r="D46" t="n">
+        <v>34.21742857142857</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2447.68</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.006899999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>34.96685714285714</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2500.04</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00705</v>
+      </c>
+      <c r="D48" t="n">
+        <v>35.71485714285714</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2551.96</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.007199999999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>36.45657142857143</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2603.29</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.00735</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37.18985714285714</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2652.28</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37.88971428571429</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2696.24</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.007650000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>38.51771428571428</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.77625</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2706.44</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0077625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>38.66342857142858</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2622.28</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.007875</v>
+      </c>
+      <c r="D54" t="n">
+        <v>37.46114285714286</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.79313</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2633.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.007931300000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37.62571428571429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.79875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2632.24</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0079875</v>
+      </c>
+      <c r="D56" t="n">
+        <v>37.60342857142857</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.80719</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2645.04</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.008071899999999998</v>
+      </c>
+      <c r="D57" t="n">
+        <v>37.78628571428571</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.81563</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2661.88</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0081563</v>
+      </c>
+      <c r="D58" t="n">
+        <v>38.02685714285715</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.81984</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2672.52</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0081984</v>
+      </c>
+      <c r="D59" t="n">
+        <v>38.17885714285714</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.82301</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2675.16</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.008230099999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>38.21657142857143</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2677.53</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D61" t="n">
+        <v>38.25042857142857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>